--- a/media/Levels/Stage02/GroundMap.xlsx
+++ b/media/Levels/Stage02/GroundMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erima\desktop\授業で手に入れたItems\2年後期製作\newwww\media\Levels\Stage01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erima\Desktop\授業で手に入れたItems\2年後期製作\newwww\media\Levels\Stage02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AD9FBF-4C88-4E89-AE6E-48A71171E1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828CFB9C-3E57-4888-8E3F-75805F9C5291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="984" windowWidth="15540" windowHeight="9888" xr2:uid="{0FC1B1E8-AFA2-4169-A253-574990DACEA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0FC1B1E8-AFA2-4169-A253-574990DACEA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F2B765-6376-4B50-BD0B-2C1808420CFD}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -462,29 +462,8 @@
       <c r="J1">
         <v>0</v>
       </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>0</v>
-      </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-      <c r="R1">
-        <v>0</v>
-      </c>
-      <c r="S1">
-        <v>0</v>
-      </c>
-      <c r="T1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -515,29 +494,8 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
@@ -568,29 +526,8 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -621,29 +558,8 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0</v>
       </c>
@@ -674,26 +590,9 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0</v>
       </c>
@@ -724,29 +623,8 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0</v>
       </c>
@@ -777,29 +655,8 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0</v>
       </c>
@@ -830,29 +687,8 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0</v>
       </c>
@@ -883,29 +719,8 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0</v>
       </c>
@@ -936,257 +751,9 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="14:20" x14ac:dyDescent="0.45">
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="14:20" x14ac:dyDescent="0.45">
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="14:20" x14ac:dyDescent="0.45">
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="14:20" x14ac:dyDescent="0.45">
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="R12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/media/Levels/Stage02/GroundMap.xlsx
+++ b/media/Levels/Stage02/GroundMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erima\Desktop\授業で手に入れたItems\2年後期製作\newwww\media\Levels\Stage02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828CFB9C-3E57-4888-8E3F-75805F9C5291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2A089C-03F2-46B5-9E52-FEBAC5F2EB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0FC1B1E8-AFA2-4169-A253-574990DACEA4}"/>
   </bookViews>
@@ -426,14 +426,14 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
@@ -664,11 +664,11 @@
         <v>0</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
         <v>0</v>
       </c>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>0</v>

--- a/media/Levels/Stage02/GroundMap.xlsx
+++ b/media/Levels/Stage02/GroundMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erima\Desktop\授業で手に入れたItems\2年後期製作\newwww\media\Levels\Stage02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2A089C-03F2-46B5-9E52-FEBAC5F2EB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E76AEA5-E876-4AB3-AD02-9C2F1D1D11EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0FC1B1E8-AFA2-4169-A253-574990DACEA4}"/>
+    <workbookView xWindow="2736" yWindow="924" windowWidth="17280" windowHeight="8880" xr2:uid="{0FC1B1E8-AFA2-4169-A253-574990DACEA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
